--- a/Control.xlsx
+++ b/Control.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>1.Create org with username boltdemo-xyz@summa-tech.com  where xyz is your initials.</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>13. Create  a community using the Napili Template</t>
-  </si>
-  <si>
-    <t>Yes_OK</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,48 +545,30 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
